--- a/biology/Botanique/Rose_méditative/Rose_méditative.xlsx
+++ b/biology/Botanique/Rose_méditative/Rose_méditative.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rose_m%C3%A9ditative</t>
+          <t>Rose_méditative</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Rose méditative est une peinture du surréaliste espagnol Salvador Dalí, réalisée en 1958[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Rose méditative est une peinture du surréaliste espagnol Salvador Dalí, réalisée en 1958.
 Il s'agit d'une huile sur toile.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rose_m%C3%A9ditative</t>
+          <t>Rose_méditative</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dalí utilisait beaucoup cet environnement dans ses tableaux pour y démontrer la beauté, son monde et pour y intégrer ses objets extravagants et oniriques. Si on s'approche plus de l'œuvre, on peut apercevoir deux personnes : un couple ? Il est probable car la rose est un des symboles de l'amour mais la regardent-ils ? Au surplus, ces personnages sont minuscules face à cette beauté géante : Dalí ajoutait souvent des personnages miniatures dans ses œuvres, extrêmement difficiles à décortiquer pour montrer leur très petite taille face aux engins fantasmagoriques, géants et impressionnants ! On remarque aussi que sur la rose il y a une goutte d'eau, pourquoi ? La goutte d'eau représente la vie. La rose est le sujet, les tendances sont inversées et la rose nous incite à méditer.
 </t>
